--- a/Graph_Sparsification/Matlab_Plots/histo_distances.xlsx
+++ b/Graph_Sparsification/Matlab_Plots/histo_distances.xlsx
@@ -1,71 +1,399 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView windowHeight="18450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name=" asps_CA-CondMat.txt" sheetId="1" r:id="rId1"/>
-    <sheet name="asps_CA-HepPh.txt" sheetId="2" r:id="rId2"/>
-    <sheet name="asps_Social-Douban.txt" sheetId="3" r:id="rId3"/>
+    <sheet name="asps_Flickr.txt" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
     <t>Degree_biased_Landmark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Uniform_Landmark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RandomWalk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Snowball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -73,24 +401,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -375,28 +986,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+      <selection activeCell="E12" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="12.3714285714286" customWidth="1"/>
+    <col min="2" max="2" width="26.1238095238095" customWidth="1"/>
+    <col min="3" max="3" width="21.6285714285714" customWidth="1"/>
+    <col min="4" max="4" width="18.3714285714286" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" customFormat="1" spans="2:4">
       <c r="B1">
         <v>500</v>
       </c>
@@ -404,104 +1015,90 @@
         <v>1000</v>
       </c>
       <c r="D1">
-        <v>1500</v>
-      </c>
-      <c r="E1">
         <v>2000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" customFormat="1" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.33324098997156498</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.235894642263174</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.22942248463120701</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.24092180661035101</v>
+      <c r="B2">
+        <v>0.168458938401937</v>
+      </c>
+      <c r="C2">
+        <v>0.194845429554145</v>
+      </c>
+      <c r="D2">
+        <v>0.239886924659112</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" customFormat="1" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.57454347111430704</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.71553124151707104</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.783061573790097</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.842164861754085</v>
+      <c r="B3">
+        <v>0.777588125732159</v>
+      </c>
+      <c r="C3">
+        <v>0.841301517715016</v>
+      </c>
+      <c r="D3">
+        <v>0.92206078310602</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" customFormat="1" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>1.2677472743685101</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.32924793468847</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.33094049123473</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.33224587997765</v>
+      <c r="B4">
+        <v>1.28457446661127</v>
+      </c>
+      <c r="C4">
+        <v>1.33271252018937</v>
+      </c>
+      <c r="D4">
+        <v>1.33134593776659</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" customFormat="1" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.69854383867497705</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.61524368744698998</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.75534736886312104</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.74453189879927295</v>
+      <c r="B5">
+        <v>0.715045666489988</v>
+      </c>
+      <c r="C5">
+        <v>0.639355817000412</v>
+      </c>
+      <c r="D5">
+        <v>0.818509860263226</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="12.3714285714286" customWidth="1"/>
+    <col min="2" max="2" width="26.1238095238095" customWidth="1"/>
+    <col min="3" max="3" width="21.6285714285714" customWidth="1"/>
+    <col min="4" max="4" width="18.3714285714286" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" customFormat="1" spans="2:4">
       <c r="B1">
         <v>500</v>
       </c>
@@ -509,193 +1106,67 @@
         <v>1000</v>
       </c>
       <c r="D1">
-        <v>1500</v>
-      </c>
-      <c r="E1">
         <v>2000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" customFormat="1" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.82561994778631498</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.74953894459900605</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.70714406200031299</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.65600833428137295</v>
+      <c r="B2">
+        <v>0.859682443103279</v>
+      </c>
+      <c r="C2">
+        <v>0.873058361227817</v>
+      </c>
+      <c r="D2">
+        <v>0.727982428219932</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" customFormat="1" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.415393645644969</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.56015326481123295</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.63604992306756603</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.643174194497801</v>
+      <c r="B3">
+        <v>0.775175243516446</v>
+      </c>
+      <c r="C3">
+        <v>0.978851157416916</v>
+      </c>
+      <c r="D3">
+        <v>1.13219641765364</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" customFormat="1" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>1.1158683818800701</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.899449429282145</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.94613079226419605</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.82538393480196803</v>
+      <c r="B4">
+        <v>1.28143419590056</v>
+      </c>
+      <c r="C4">
+        <v>1.35205940516582</v>
+      </c>
+      <c r="D4">
+        <v>1.36149584839345</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" customFormat="1" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.72191210795553296</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.62478003978659002</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.77670967685058701</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.66150134403233796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B5">
+        <v>1.20179599028281</v>
+      </c>
+      <c r="C5">
+        <v>1.18488579568929</v>
+      </c>
+      <c r="D5">
+        <v>1.32752864842877</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B1">
-        <v>500</v>
-      </c>
-      <c r="C1">
-        <v>1000</v>
-      </c>
-      <c r="D1">
-        <v>1500</v>
-      </c>
-      <c r="E1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.0913128907043801</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.95776934469652497</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.88466099847554402</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.80892337618505195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.41786686203530599</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.81065339102160705</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.93473948919723404</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.00258836010538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.25934262117642</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.3425493931223</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.37142949286103</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.3857549336342101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.11357366050663</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.17534790589699</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.18649224539693</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.19932673447479</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>